--- a/Disign/재화.xlsx
+++ b/Disign/재화.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D445E6A-6D10-402C-A28C-B30DA673441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C148F05-FA55-47E9-BAE0-182E1EE2C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>2023 하계 게임 개발 프로젝트-재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +41,10 @@
   </si>
   <si>
     <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*재화 사용 가능 요소 - 캐릭터 강화, 무기 강화, 아이템 구매, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,14 +110,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0113586D-E520-431D-B6AC-F07E9AD5C6EF}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -440,25 +445,25 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -466,7 +471,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -483,4 +488,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E02E019-B43A-42A7-9ACF-D905A11FC404}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Disign/재화.xlsx
+++ b/Disign/재화.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C148F05-FA55-47E9-BAE0-182E1EE2C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBE2E4-037A-4499-8905-B8D5E2DF30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="재화" sheetId="1" r:id="rId1"/>
+    <sheet name="사용, 공급처" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>2023 하계 게임 개발 프로젝트-재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,7 +44,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">*재화 사용 가능 요소 - 캐릭터 강화, 무기 강화, 아이템 구매, </t>
+    <t>*재화 사용처 - 무기소, 상점, 캐릭터 오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*재화 사용 가능 요소 - 무기 강화, 아이템 구매, 무기 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*재화 공급처 - 보물상자, 몬스터 사냥(확률), 무기 분해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-몬스터의 경우 처치 시 일정 확률로 재화를 드롭하고, 해당 스테이지에서 n마리 이상의 몬스터를 잡을 경우 해당 스테이지에서는 더 이상 몬스터로 재화를 획득할 수 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,17 +507,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E02E019-B43A-42A7-9ACF-D905A11FC404}">
-  <dimension ref="B1"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Disign/재화.xlsx
+++ b/Disign/재화.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBE2E4-037A-4499-8905-B8D5E2DF30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2AFCA-DFC1-40DB-8253-AF37067DD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
   </bookViews>
   <sheets>
     <sheet name="재화" sheetId="1" r:id="rId1"/>
-    <sheet name="사용, 공급처" sheetId="2" r:id="rId2"/>
+    <sheet name="0.사용, 공급처" sheetId="2" r:id="rId2"/>
+    <sheet name="1.공급처 세부" sheetId="3" r:id="rId3"/>
+    <sheet name="2.사용처 세부" sheetId="4" r:id="rId4"/>
+    <sheet name="3.계정 재화" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>2023 하계 게임 개발 프로젝트-재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,7 +59,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-몬스터의 경우 처치 시 일정 확률로 재화를 드롭하고, 해당 스테이지에서 n마리 이상의 몬스터를 잡을 경우 해당 스테이지에서는 더 이상 몬스터로 재화를 획득할 수 없다.</t>
+    <t>0. 사용, 공급처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공급처 세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 사용처 세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 단 보스 방 클리어 후 오픈하는 상자의 경우 해당 범위에서 나온 값의 1.5배를 해 지급한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*계정 재화 사용 가능 요소 - 계정 특성 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.무기분해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화량 - 10 + 스테이지 + 강화수*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화량 범위 - 스테이지*20 ~ 스테이지*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.스테이지 별 몬스터 재화량 &amp; 드롭확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.무기 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 성공률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.아이템 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>water element / 물 원소</t>
+  </si>
+  <si>
+    <t>fire element / 불 원소</t>
+  </si>
+  <si>
+    <t>holy element / 성 원소</t>
+  </si>
+  <si>
+    <t>darkness element / 암흑 원소</t>
+  </si>
+  <si>
+    <t>panacea / 만병통치약</t>
+  </si>
+  <si>
+    <t>hp potion / 체력 물약</t>
+  </si>
+  <si>
+    <t>grenade/ 수류탄</t>
+  </si>
+  <si>
+    <t>bait / 미끼</t>
+  </si>
+  <si>
+    <t>solid potion / 단단 물약</t>
+  </si>
+  <si>
+    <t>speed potion / 속도 물약</t>
+  </si>
+  <si>
+    <t>stop! / 멈춰!</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-몬스터의 경우 처치 시 일정 확률로 재화를 드롭하고, 해당 스테이지에서 사냥으로 n만큼의 재화를 얻었을 경우 해당 스테이지에서는 더 이상 몬스터로 재화를 획득할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *몬스터 별 재화량, 드롭률은 다르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 별 최대 획득량 - 스테이지*120, 만약 재화를 습득했을 때 최대 획득량 기준을 초과했다면 최대 획득량을 넘어서는 재화는 습득하지 못하고 한계치까지만 얻을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ex. 최대 120일때, 현재 획득량 119이고 3짜리 재화를 습득 시 1만큼의 재화만 얻어진다.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 무기 구매(무기방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*계정 재화 사용처 - 계정 특성 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*계정 재화 공급처 - 던전 탐험(게임) 종료 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 재화 - 게임 오버 &amp; 게임 클리어 시 위치한 스테이지와 보유 재화 등을 기준으로 계정 재화를 지급한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.계정 재화 수급량 공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1)클리어 시 - 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2)마무리 한 스테이지 - 스테이지 * 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3)게임 끝났을 때 보유 재화량 - 보유 재화량 / 20 (나머지 버림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (4)지니고 있는 무기 강화 수 - 각 무기 강화 수의 합 * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 지급 코인 수 = (1) + (2) + (3) + (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.계정 재화 사용처 (계정 특성 초기화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*초기화 10회 이후로는 필요 재화량이 200으로 고정된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,27 +325,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,34 +744,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0113586D-E520-431D-B6AC-F07E9AD5C6EF}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -491,8 +787,18 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -507,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E02E019-B43A-42A7-9ACF-D905A11FC404}">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -531,12 +837,844 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="4" t="s">
-        <v>7</v>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E27430-242F-4060-AE43-61912AC2E8D9}">
+  <dimension ref="B2:E29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E02A4D-9B10-4DE1-A2E6-E9D90734609F}">
+  <dimension ref="B2:G33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>90</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>250</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="10">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>70</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="10">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="10">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
+        <v>30</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>30</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="10">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="10">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="10">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="10">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>30</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>50</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>80</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9">
+        <v>130</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="6">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
+        <v>140</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="6">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9">
+        <v>150</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A503E-71C4-4A79-9725-5C253014DD52}">
+  <dimension ref="B2:E28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="9">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
+        <v>70</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="9">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>90</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="9">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
+        <v>110</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="9">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9">
+        <v>140</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
+        <v>170</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="9">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <v>200</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="9">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
+        <v>200</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="9">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <v>200</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="9">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>200</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="9">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <v>200</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Disign/재화.xlsx
+++ b/Disign/재화.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2AFCA-DFC1-40DB-8253-AF37067DD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2857AE49-66D5-4158-A655-D717894F7831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
   </bookViews>
   <sheets>
     <sheet name="재화" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*계정 재화 사용 가능 요소 - 계정 특성 초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.무기분해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*계정 재화 사용처 - 계정 특성 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*계정 재화 공급처 - 던전 탐험(게임) 종료 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +262,14 @@
   </si>
   <si>
     <t>*초기화 10회 이후로는 필요 재화량이 200으로 고정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*계정 재화 사용 가능 요소 - 계정 특성 초기화, 캐릭터 오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*계정 재화 사용처 - 계정 특성 페이지, 캐릭터 선택 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,46 +382,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -753,25 +753,25 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -816,7 +816,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -838,22 +838,22 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -866,20 +866,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E27430-242F-4060-AE43-61912AC2E8D9}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -889,124 +889,124 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,360 +1019,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E02A4D-9B10-4DE1-A2E6-E9D90734609F}">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="15">
         <v>30</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="17">
         <v>0.8</v>
       </c>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>90</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="17">
         <v>0.6</v>
       </c>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>250</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="17">
         <v>0.55000000000000004</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="10">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>50</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>50</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>50</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>80</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <v>70</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>35</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>70</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>30</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
+        <v>30</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="7">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="7">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="7">
+        <v>13</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="7">
+        <v>14</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="C28" s="11">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
         <v>50</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="10">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="10">
+      <c r="C30" s="11">
+        <v>80</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="10">
+      <c r="C31" s="11">
+        <v>130</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>80</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="10">
+      <c r="C32" s="11">
+        <v>140</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
-        <v>70</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="10">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
-        <v>35</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="10">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
-        <v>70</v>
-      </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="10">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9">
-        <v>30</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="10">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
-        <v>30</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="10">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
-        <v>100</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="10">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="10">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
-        <v>30</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="6">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9">
-        <v>50</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="6">
-        <v>3</v>
-      </c>
-      <c r="C30" s="9">
-        <v>80</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="6">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9">
-        <v>130</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="6">
-        <v>5</v>
-      </c>
-      <c r="C32" s="9">
-        <v>140</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="6">
-        <v>6</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>150</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -1383,41 +1415,9 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1428,219 +1428,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A503E-71C4-4A79-9725-5C253014DD52}">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
-        <v>54</v>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="9">
+      <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
         <v>5</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
         <v>15</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="9">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
         <v>25</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="9">
+      <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
         <v>40</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <v>4</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
         <v>50</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>5</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
         <v>70</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="9">
+      <c r="B19" s="11">
         <v>6</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
         <v>90</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="9">
+      <c r="B20" s="11">
         <v>7</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>110</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="9">
+      <c r="B21" s="11">
         <v>8</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <v>140</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="9">
+      <c r="B22" s="11">
         <v>9</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
         <v>170</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>10</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
         <v>200</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="9">
+      <c r="B24" s="11">
         <v>11</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11">
         <v>200</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="9">
+      <c r="B25" s="11">
         <v>12</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
         <v>200</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="9">
+      <c r="B26" s="11">
         <v>13</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
         <v>200</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="9">
+      <c r="B27" s="11">
         <v>14</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11">
         <v>200</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -1649,30 +1673,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Disign/재화.xlsx
+++ b/Disign/재화.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2857AE49-66D5-4158-A655-D717894F7831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89E24E5-C96E-4CBF-BAA3-DA1D0DC9DB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
   </bookViews>
   <sheets>
     <sheet name="재화" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>2023 하계 게임 개발 프로젝트-재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 재화량 범위 - 스테이지*20 ~ 스테이지*30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.스테이지 별 몬스터 재화량 &amp; 드롭확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 스테이지 별 최대 획득량 - 스테이지*120, 만약 재화를 습득했을 때 최대 획득량 기준을 초과했다면 최대 획득량을 넘어서는 재화는 습득하지 못하고 한계치까지만 얻을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> (ex. 최대 120일때, 현재 획득량 119이고 3짜리 재화를 습득 시 1만큼의 재화만 얻어진다.)</t>
   </si>
   <si>
@@ -270,6 +262,62 @@
   </si>
   <si>
     <t>*계정 재화 사용처 - 계정 특성 페이지, 캐릭터 선택 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.계정 재화 사용처 (캐릭터 구매)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구매 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knight/기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assassin/암살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrior/전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer/궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine/해병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magician/마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gambler/도박꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*가격은 협의 필요, 캐릭터의 등급화?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *특수 몬스터의 경우, 드롭률은 100%이며, 재화량은 기존값의 1.8배를 드랍한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화량 범위 - 스테이지*25 ~ 스테이지*35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 별 최대 획득량 - 스테이지*150, 만약 재화를 습득했을 때 최대 획득량 기준을 초과했다면 최대 획득량을 넘어서는 재화는 습득하지 못하고 한계치까지만 얻을 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,9 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +473,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,25 +816,25 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -838,22 +901,22 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -864,151 +927,434 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E27430-242F-4060-AE43-61912AC2E8D9}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="D14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="D33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="G36" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="D39" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="G46" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="G48" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="21">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1019,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E02A4D-9B10-4DE1-A2E6-E9D90734609F}">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
@@ -1027,24 +1373,24 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
@@ -1053,14 +1399,14 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>30</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16">
         <v>0.8</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
@@ -1069,14 +1415,14 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>90</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17">
+      <c r="E5" s="15"/>
+      <c r="F5" s="16">
         <v>0.6</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
@@ -1085,326 +1431,294 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>250</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>50</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>50</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>50</v>
       </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>50</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>80</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>80</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="7">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>70</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <v>35</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="6">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>70</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="7">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="6">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="7">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
-        <v>70</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="7">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>30</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="6">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
         <v>30</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="7">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="6">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11">
-        <v>30</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="7">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
         <v>100</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>12</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>14</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="12"/>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>30</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>50</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>80</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>130</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>140</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>6</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>150</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -1418,6 +1732,38 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,231 +1772,380 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A503E-71C4-4A79-9725-5C253014DD52}">
-  <dimension ref="B2:E28"/>
+  <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>0</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
         <v>15</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
         <v>25</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
         <v>40</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
         <v>50</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
         <v>70</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>6</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
         <v>90</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>7</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
         <v>110</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>8</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
         <v>140</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>9</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
         <v>170</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>10</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
         <v>200</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>11</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
         <v>200</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>12</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
         <v>200</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>13</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
         <v>200</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>14</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
         <v>200</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10">
+        <v>110</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10">
+        <v>110</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10">
+        <v>110</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10">
+        <v>110</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10">
+        <v>110</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10">
+        <v>110</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10">
+        <v>110</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+  <mergeCells count="48">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D22:E22"/>
@@ -1665,14 +2160,16 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Disign/재화.xlsx
+++ b/Disign/재화.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B560B2D-367F-4A38-A159-AE17AD477537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD4E1CB-3A57-43CD-B550-3E806A713D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{8271D9FE-CB3A-461C-B135-41D52D9B5676}"/>
   </bookViews>
   <sheets>
     <sheet name="재화" sheetId="1" r:id="rId1"/>
     <sheet name="0.사용, 공급처" sheetId="2" r:id="rId2"/>
-    <sheet name="1.공급처 세부" sheetId="3" r:id="rId3"/>
-    <sheet name="2.사용처 세부" sheetId="4" r:id="rId4"/>
-    <sheet name="3.계정 재화" sheetId="5" r:id="rId5"/>
+    <sheet name="재화 에셋" sheetId="6" r:id="rId3"/>
+    <sheet name="1.공급처 세부" sheetId="3" r:id="rId4"/>
+    <sheet name="2.사용처 세부" sheetId="4" r:id="rId5"/>
+    <sheet name="3.계정 재화" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>2023 하계 게임 개발 프로젝트-재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 재화량 범위 - 스테이지*25 ~ 스테이지*35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 스테이지 별 최대 획득량 - 스테이지*150, 만약 재화를 습득했을 때 최대 획득량 기준을 초과했다면 최대 획득량을 넘어서는 재화는 습득하지 못하고 한계치까지만 얻을 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +325,24 @@
   </si>
   <si>
     <t>-몬스터 처치시, 일정 각 스테이지 별 드롭률에 따라 재화(코인)를 맵 상에 떨구며, 플레이어는 해당 재화 오브젝트에 접촉하여 재화를 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/environments/animated-2d-coins-22097</t>
+  </si>
+  <si>
+    <t>인게임 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 재화(달러로 사용 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재화량 범위 - 스테이지*25 ~ 스테이지*35 (범위 내에서 랜덤 지급)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +380,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -444,12 +468,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,6 +507,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,30 +543,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -857,25 +870,25 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -967,11 +980,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F46C47-FCE6-4558-BDA0-78F14786EBE4}">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/2d-pixel-item-asset-pack-99645" xr:uid="{3A3C6C54-5BCE-4A37-B6FE-95BA072B4CC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E27430-242F-4060-AE43-61912AC2E8D9}">
-  <dimension ref="A2:H56"/>
+  <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="112" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -983,7 +1036,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1010,13 +1063,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="27" t="s">
-        <v>78</v>
+      <c r="B10" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -1031,467 +1084,221 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C19" s="9">
         <v>0.6</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="4">
         <v>1.2</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C23" s="9">
         <v>0.8</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C27" s="9">
         <v>0.5</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="4">
         <v>1.4</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="E30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C31" s="9">
         <v>0.4</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="4">
         <v>0.7</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C35" s="9">
         <v>0.45</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="4">
         <v>6</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="4">
         <v>0.8</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="E38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C39" s="9">
         <v>0.77</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="4">
         <v>7</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="4">
         <v>0.7</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1503,12 +1310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E02A4D-9B10-4DE1-A2E6-E9D90734609F}">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1525,14 +1332,14 @@
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
@@ -1541,14 +1348,14 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>30</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
+      <c r="E4" s="18"/>
+      <c r="F4" s="19">
         <v>0.8</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
@@ -1557,14 +1364,14 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>90</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
+      <c r="E5" s="18"/>
+      <c r="F5" s="19">
         <v>0.6</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
@@ -1573,14 +1380,14 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="16">
-        <v>250</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G6" s="19"/>
+      <c r="D6" s="17">
+        <v>350</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
@@ -1591,209 +1398,205 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
         <v>50</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
         <v>50</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
         <v>50</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
         <v>50</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="6">
         <v>5</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
         <v>80</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
         <v>70</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
         <v>35</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
         <v>8</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
         <v>70</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="6">
         <v>9</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
         <v>30</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="6">
         <v>10</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
         <v>30</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>11</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <v>100</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
         <v>12</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="12">
+      <c r="C21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13">
         <v>35</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
         <v>13</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="12">
+      <c r="C22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="13">
         <v>35</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="6">
-        <v>14</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
@@ -1804,99 +1607,67 @@
       <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>30</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>50</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>80</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>130</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>140</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>6</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>150</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -1910,17 +1681,49 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A503E-71C4-4A79-9725-5C253014DD52}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -1967,164 +1770,164 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>0</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
         <v>5</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
         <v>15</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
         <v>25</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
         <v>40</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13">
         <v>50</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="12">
+      <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
         <v>70</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <v>6</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13">
         <v>90</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>7</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13">
         <v>110</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="12">
+      <c r="B21" s="13">
         <v>8</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13">
         <v>140</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="12">
+      <c r="B22" s="13">
         <v>9</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13">
         <v>170</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <v>10</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13">
         <v>200</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>11</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13">
         <v>200</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <v>12</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13">
         <v>200</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>13</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
         <v>200</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>14</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
         <v>200</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
@@ -2137,97 +1940,111 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
         <v>130</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
         <v>130</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
         <v>130</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
         <v>130</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
         <v>160</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D22:E22"/>
@@ -2242,30 +2059,16 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
